--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4929.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4929.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2451,10 +2452,6 @@
           <t>4271</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2470,9 +2467,6 @@
       <c r="B4" t="n">
         <v>8</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2515,10 +2509,6 @@
           <t>4419</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2531,177 +2521,435 @@
           <t>4421</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.05%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7.23%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4746</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4751</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4264</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4271</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.05%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7.23%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4620</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2709,25 +2957,12 @@
           <t>4657</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2735,17 +2970,12 @@
           <t>4658</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2753,13 +2983,14 @@
           <t>4698</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -2769,11 +3000,16 @@
           <t>4699</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2781,11 +3017,16 @@
           <t>4746</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2795,9 +3036,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4929.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4929.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2452,6 +2451,10 @@
           <t>4271</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2467,6 +2470,9 @@
       <c r="B4" t="n">
         <v>8</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2509,6 +2515,10 @@
           <t>4419</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2521,6 +2531,10 @@
           <t>4421</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2536,6 +2550,9 @@
       <c r="B8" t="n">
         <v>9</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2551,6 +2568,9 @@
       <c r="B9" t="n">
         <v>9</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2593,6 +2613,10 @@
           <t>4478</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2605,6 +2629,10 @@
           <t>4487</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2647,6 +2675,10 @@
           <t>4620</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2662,6 +2694,9 @@
       <c r="B15" t="n">
         <v>11</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2687,6 +2722,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2702,6 +2738,9 @@
       <c r="B17" t="n">
         <v>10</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2714,6 +2753,10 @@
           <t>4698</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2726,6 +2769,11 @@
           <t>4699</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2733,6 +2781,11 @@
           <t>4746</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2740,302 +2793,11 @@
           <t>4751</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4261</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4264</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4271</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4272</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4415</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4419</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4421</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4746</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4751</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4929.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4929.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>03/03/2019</t>
@@ -656,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>13/03/2019</t>
@@ -703,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>16/03/2019</t>
@@ -802,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -849,6 +852,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>07/03/2020</t>
@@ -896,6 +900,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>02/04/2021</t>
@@ -943,6 +948,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>04/04/2021</t>
@@ -1042,6 +1048,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>16/07/2021</t>
@@ -1089,6 +1096,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>02/09/2021</t>
@@ -1136,6 +1144,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>19/07/2022</t>
@@ -1235,6 +1244,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -1282,6 +1292,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>09/10/2022</t>
@@ -1381,6 +1392,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>27/01/2023</t>
@@ -1428,6 +1440,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>29/01/2023</t>
@@ -1475,6 +1488,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>31/03/2023</t>
@@ -2367,439 +2381,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4264</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3.19%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4271</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4272</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4415</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4419</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4421</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.05%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7.23%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4658</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4746</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4751</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>